--- a/documents/ADF_2_0_Java_M16_TestScen_Codington.xlsx
+++ b/documents/ADF_2_0_Java_M16_TestScen_Codington.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-705" yWindow="-225" windowWidth="10740" windowHeight="5040" tabRatio="422" activeTab="1"/>
+    <workbookView xWindow="-705" yWindow="-225" windowWidth="10740" windowHeight="5040" tabRatio="422" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="4" r:id="rId1"/>
     <sheet name="Test Scenarios" sheetId="6" r:id="rId2"/>
+    <sheet name="Test Event" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Cover Sheet'!$A$1:$N$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Test Scenarios'!$A$1:$G$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Test Scenarios'!$A$1:$G$80</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Test Scenarios'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="223">
   <si>
     <t>Module 12 - Temperature Converter System</t>
   </si>
@@ -309,9 +309,6 @@
     <t>setEmail (yyyy@xxx.zzz.)</t>
   </si>
   <si>
-    <t>setEmail (yyy,;.y@x x][}&lt;&gt;()\\//{kk.zzz)</t>
-  </si>
-  <si>
     <t>TCS.UT.AP331.TS.005.05</t>
   </si>
   <si>
@@ -331,6 +328,399 @@
   </si>
   <si>
     <t>setphoneNumber(34666556444)</t>
+  </si>
+  <si>
+    <t>setphoneNumber(34 666555444)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.008</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.009</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.008.01</t>
+  </si>
+  <si>
+    <t>setUsername(valido)</t>
+  </si>
+  <si>
+    <t>setUsername(no valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (Username VALID)</t>
+  </si>
+  <si>
+    <t>passed one parameter (Username NO VALID)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al Username del Visitor</t>
+  </si>
+  <si>
+    <t>setUsername (John_coritel_12)</t>
+  </si>
+  <si>
+    <t>setUsername (John coritel_12)</t>
+  </si>
+  <si>
+    <t>setEmail (yyy,;y@x x][}&lt;&gt;()\\//{kk.zzz)</t>
+  </si>
+  <si>
+    <t>setFirstname(valido)</t>
+  </si>
+  <si>
+    <t>setFirstname(no valido)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.010.01</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al Firstname del Visitor</t>
+  </si>
+  <si>
+    <t>setFirstname (Robert)</t>
+  </si>
+  <si>
+    <t>setUsername (Length &lt;6 or &gt;12)</t>
+  </si>
+  <si>
+    <t>setFirstname (Length &lt;1 or &gt;30)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.011</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.011.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.011.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.011.03</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.010</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.012</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.013</t>
+  </si>
+  <si>
+    <t>setLastname(valido)</t>
+  </si>
+  <si>
+    <t>setLastname(no valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (Firstname VALID)</t>
+  </si>
+  <si>
+    <t>passed one parameter (Firstname NO VALID)</t>
+  </si>
+  <si>
+    <t>passed one parameter (Lastname VALID)</t>
+  </si>
+  <si>
+    <t>passed one parameter (Lastname NO VALID)</t>
+  </si>
+  <si>
+    <t>setLastname (Length &lt;1 or &gt;30)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.012.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.009.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.009.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.013.01</t>
+  </si>
+  <si>
+    <t>setLastname (Williams)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.014</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.015</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.014.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.015.01</t>
+  </si>
+  <si>
+    <t>setAddress(valido)</t>
+  </si>
+  <si>
+    <t>setAddress(no valido)</t>
+  </si>
+  <si>
+    <t>setAddress (Length null or &gt;30)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.016</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.016.01</t>
+  </si>
+  <si>
+    <t>setPassword(valido)</t>
+  </si>
+  <si>
+    <t>setPassword(no valido)</t>
+  </si>
+  <si>
+    <t>setAddress (Lafayette 4 5D)</t>
+  </si>
+  <si>
+    <t>passed one parameter (setPassword VALID)</t>
+  </si>
+  <si>
+    <t>passed one parameter (Address VALID)</t>
+  </si>
+  <si>
+    <t>passed one parameter (Address NO VALID)</t>
+  </si>
+  <si>
+    <t>passed one parameter (setPassword NO VALID)</t>
+  </si>
+  <si>
+    <t>setPassword (555uty8r!)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al Lastname del Visitor</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al Address del Visitor</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al Password del Visitor</t>
+  </si>
+  <si>
+    <t>setPassword (Length &lt;6 or &gt;15)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.017</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.017.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.018</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.019</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.018.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.019.01</t>
+  </si>
+  <si>
+    <t>setConfirmPassword(valido)</t>
+  </si>
+  <si>
+    <t>setConfirmPassword(no valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (setConfirmPassword NO VALID)</t>
+  </si>
+  <si>
+    <t>passed one parameter (setConfirmPassword VALID)</t>
+  </si>
+  <si>
+    <t>setConfirmPassword (Length &lt;6 or &gt;15)</t>
+  </si>
+  <si>
+    <t>setConfirmPassword (555uty8r!)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al ConfirmPassword del Visitor</t>
+  </si>
+  <si>
+    <t>Unit Test Stage - Event</t>
+  </si>
+  <si>
+    <t>Initialize Event</t>
+  </si>
+  <si>
+    <t>Event()</t>
+  </si>
+  <si>
+    <t>Event(Event)</t>
+  </si>
+  <si>
+    <t>Event(null)</t>
+  </si>
+  <si>
+    <t>setEventName(valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (name VALID)</t>
+  </si>
+  <si>
+    <t>setEventName(xxxxx)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al nombre del Event</t>
+  </si>
+  <si>
+    <t>setEventName(no valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (name NO VALID)</t>
+  </si>
+  <si>
+    <t>setEventName()</t>
+  </si>
+  <si>
+    <t>setEventName(length &gt; 45)</t>
+  </si>
+  <si>
+    <t>Se lanza una DomainException con el mensaje "The event name was not entered correctly (invalid length)"</t>
+  </si>
+  <si>
+    <t>setDescription(valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (Description VALID)</t>
+  </si>
+  <si>
+    <t>setDescription(xxxxx)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al description del Event</t>
+  </si>
+  <si>
+    <t>setDescription(no valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (Descriptionr NO VALID)</t>
+  </si>
+  <si>
+    <t>setDescription()</t>
+  </si>
+  <si>
+    <t>setDescription(length &gt; 45)</t>
+  </si>
+  <si>
+    <t>setDuration(Duration valido)</t>
+  </si>
+  <si>
+    <t>setDuration(120)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro a la duración del Event (en minutos)</t>
+  </si>
+  <si>
+    <t>setDuration(Duration no valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Duration NO  VALID)</t>
+  </si>
+  <si>
+    <t>setDuration()</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Duration NO  VALID (formato invalido con decimales))</t>
+  </si>
+  <si>
+    <t>setDuration(100.45)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Duration NO  VALID (formato inválido con letra))</t>
+  </si>
+  <si>
+    <t>setDuration(cien)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.011.04</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Duration NO  VALID (longitud excedida))</t>
+  </si>
+  <si>
+    <t>setDuration(120000000)</t>
+  </si>
+  <si>
+    <t>setEventType(valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (eventType VALID)</t>
+  </si>
+  <si>
+    <t>setEventType(Exposición)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al typeEvent del Event</t>
+  </si>
+  <si>
+    <t>setEventType(no valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (eventType NO VALID)</t>
+  </si>
+  <si>
+    <t>setEventType()</t>
+  </si>
+  <si>
+    <t>setEventType(500)</t>
+  </si>
+  <si>
+    <t>passed one parameter (eventType longitud excedida)</t>
+  </si>
+  <si>
+    <t>setEventType(Exposición de cuadros en el museo del arte contemporáneo )</t>
+  </si>
+  <si>
+    <t>setseatsAvailable(valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (seatsAvailable VALID)</t>
+  </si>
+  <si>
+    <t>setSeatsAvailable (200)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al seatsAvailable del Event</t>
+  </si>
+  <si>
+    <t>setseatsAvailable(no valido)</t>
+  </si>
+  <si>
+    <t>passed one parameter (seatsAvailable NO VALID)</t>
+  </si>
+  <si>
+    <t>setSeatsAvailable ()</t>
+  </si>
+  <si>
+    <t>passed one parameter (seatsAvailable NO VALID  (formato invalido con decimales))</t>
+  </si>
+  <si>
+    <t>setSeatsAvailable (200.5)</t>
+  </si>
+  <si>
+    <t>passed one parameter (seatsAvailable NO VALID (formato inválido con letra))</t>
+  </si>
+  <si>
+    <t>setSeatsAvailable(cincuenta)</t>
+  </si>
+  <si>
+    <t>passed one parameter (seatsAvailable NO VALID (longitud excedida))</t>
+  </si>
+  <si>
+    <t>setSeatsAvailable (5000000)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.009.03</t>
   </si>
 </sst>
 </file>
@@ -641,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -699,6 +1089,9 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -735,7 +1128,16 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1193,190 +1595,190 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="34"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
@@ -1397,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1618,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>46</v>
@@ -1635,7 +2037,7 @@
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="37"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
@@ -1650,7 +2052,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>37</v>
@@ -1669,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>37</v>
@@ -1688,7 +2090,7 @@
         <v>52</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>37</v>
@@ -1707,7 +2109,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>37</v>
@@ -1717,7 +2119,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="20"/>
       <c r="B20" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>48</v>
@@ -1726,90 +2128,88 @@
         <v>78</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>37</v>
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="20"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
-      <c r="B22" s="13" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="20"/>
+      <c r="B23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="18" t="s">
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="23" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="20"/>
       <c r="B25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>37</v>
@@ -1819,16 +2219,16 @@
     <row r="26" spans="1:7">
       <c r="A26" s="20"/>
       <c r="B26" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>37</v>
@@ -1838,16 +2238,16 @@
     <row r="27" spans="1:7">
       <c r="A27" s="20"/>
       <c r="B27" s="13" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>37</v>
@@ -1857,16 +2257,16 @@
     <row r="28" spans="1:7">
       <c r="A28" s="20"/>
       <c r="B28" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>37</v>
@@ -1876,16 +2276,16 @@
     <row r="29" spans="1:7">
       <c r="A29" s="20"/>
       <c r="B29" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>37</v>
@@ -1895,16 +2295,16 @@
     <row r="30" spans="1:7">
       <c r="A30" s="20"/>
       <c r="B30" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>37</v>
@@ -1914,36 +2314,458 @@
     <row r="31" spans="1:7">
       <c r="A31" s="20"/>
       <c r="B31" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="20"/>
+      <c r="B32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="34" t="s">
+      <c r="E32" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="15">
+      <c r="A33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20"/>
+      <c r="B34" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="15">
+      <c r="A35" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20"/>
+      <c r="B36" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+      <c r="B37" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="15">
+      <c r="A38" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="20"/>
+      <c r="B39" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="15">
+      <c r="A40" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="20"/>
+      <c r="B41" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="20"/>
+      <c r="B43" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" ht="15">
+      <c r="A44" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="20"/>
+      <c r="B45" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="15">
+      <c r="A46" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="20"/>
+      <c r="B47" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="20"/>
+      <c r="B49" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="20"/>
+      <c r="B51" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="20"/>
+      <c r="B53" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="20"/>
+      <c r="B55" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="20"/>
+      <c r="B57" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A80:G80"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.28000000000000003" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
@@ -1954,22 +2776,650 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="6" customHeight="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A9" s="39"/>
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A20" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" ht="27" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" ht="25.5">
+      <c r="A28" s="20"/>
+      <c r="B28" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" ht="25.5">
+      <c r="A29" s="20"/>
+      <c r="B29" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="38.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="15">
+      <c r="A31" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" ht="25.5">
+      <c r="A32" s="20"/>
+      <c r="B32" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="15">
+      <c r="A33" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" ht="25.5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="38.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="38.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" ht="38.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068CA72A41D082544A95AB07860F23E9D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="340c01d888da5bab1431ab979f168ce4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d540c9db9cf7a444d73bdfc2a9c401e3">
     <xsd:element name="properties">
@@ -2083,10 +3533,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7E42C1-EC76-4116-82B5-A276C98530F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD470159-D4A7-4EF3-A9FB-682DA953D312}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2107,17 +3580,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD470159-D4A7-4EF3-A9FB-682DA953D312}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7E42C1-EC76-4116-82B5-A276C98530F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>